--- a/xlsx/穆斯林的无知_intext.xlsx
+++ b/xlsx/穆斯林的无知_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_穆斯林的无知</t>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_穆斯林的无知</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/YouTube</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E7%8F%AD%E5%8A%A0%E8%A5%BF%E6%94%BB%E6%93%8A%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>2012年班加西攻擊事件</t>
+    <t>2012年班加西攻击事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E5%A4%AB%C2%B7%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%A2%E5%AD%90</t>
   </si>
   <si>
-    <t>驢子</t>
+    <t>驴子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E9%A0%BB%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>視頻網站</t>
+    <t>视频网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Sky_News</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>朝鮮日報</t>
+    <t>朝鲜日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/New_York_Times</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%A8%93</t>
   </si>
   <si>
-    <t>聖訓</t>
+    <t>圣训</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E6%98%93%E6%96%AF%E5%93%88%E6%A0%BC</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%BE%B7%E8%98%AD%E9%83%B5%E5%A0%B1%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%E6%BC%AB%E7%95%AB%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>日德蘭郵報穆罕默德漫畫事件</t>
+    <t>日德兰邮报穆罕默德漫画事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E5%91%A8%E5%88%8A</t>
@@ -263,19 +263,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E9%A7%90%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E5%A4%A7%E4%BD%BF%E9%A4%A8%E7%88%86%E7%82%B8%E6%A1%88</t>
   </si>
   <si>
-    <t>丹麥駐巴基斯坦大使館爆炸案</t>
+    <t>丹麦驻巴基斯坦大使馆爆炸案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E8%92%82%E6%96%AF%E5%B1%95%E6%BC%94%E4%B8%AD%E5%BF%83%E6%A7%8D%E6%93%8A%E6%A1%88</t>
   </si>
   <si>
-    <t>柯蒂斯展演中心槍擊案</t>
+    <t>柯蒂斯展演中心枪击案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>南方公園</t>
+    <t>南方公园</t>
   </si>
 </sst>
 </file>
